--- a/data/trans_bre/P68-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P68-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-9.307470113938541</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.353892978294597</v>
+        <v>8.353892978294596</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4618434574931607</v>
@@ -649,7 +649,7 @@
         <v>-0.423395108448071</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.8952969161366889</v>
+        <v>0.8952969161366886</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-20.89324194549847</v>
+        <v>-21.61799774992111</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.08476898738633</v>
+        <v>-12.17784255954231</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.15241591768211</v>
+        <v>-21.82642242666756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.757365257765725</v>
+        <v>-5.140794759658625</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6773558270333145</v>
+        <v>-0.6899117145598646</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6191786409275379</v>
+        <v>-0.6619047192222005</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7262509586106202</v>
+        <v>-0.7363564998629575</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5980965519470314</v>
+        <v>-0.4548238930960994</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.179223725494499</v>
+        <v>-2.39696805752674</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.017070893031299</v>
+        <v>8.819153919499433</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.457014842311019</v>
+        <v>2.031307327513813</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.03619701792793</v>
+        <v>22.43402355683557</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1744509984484764</v>
+        <v>-0.1086792903335169</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.251274449425625</v>
+        <v>1.459431883958781</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1268308799805856</v>
+        <v>0.2202372793538266</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5.600622354445097</v>
+        <v>7.201981492900642</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-6.928692311975065</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.36903781863546</v>
+        <v>-1.369037818635468</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.08542644976844939</v>
@@ -749,7 +749,7 @@
         <v>-0.2906262009756549</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.07666070847320118</v>
+        <v>-0.07666070847320161</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.976939246266701</v>
+        <v>-7.961296216683741</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.013606985078421</v>
+        <v>-4.830006877315812</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-13.53278059744046</v>
+        <v>-12.77772564784177</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.396874341647212</v>
+        <v>-8.308510331391606</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3157782392660959</v>
+        <v>-0.2914710353205615</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2465920640486341</v>
+        <v>-0.1946189896936023</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4932479871262194</v>
+        <v>-0.4776864869554566</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.380124914657055</v>
+        <v>-0.3835591143898656</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.429648263313775</v>
+        <v>3.69515093063958</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.991925011137492</v>
+        <v>9.267075871896722</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.5303199658255603</v>
+        <v>0.390301044647419</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.4333815926602</v>
+        <v>5.540648003016299</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1570217844514845</v>
+        <v>0.1499175514871739</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4199274271284216</v>
+        <v>0.463558615915009</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.02776081742177796</v>
+        <v>0.04064367070398828</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.380227237904317</v>
+        <v>0.4083738445409504</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.109172551214469</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.433328879227391</v>
+        <v>1.433328879227386</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02228282264473176</v>
@@ -849,7 +849,7 @@
         <v>-0.08519863362912174</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.06950141333769302</v>
+        <v>0.06950141333769273</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.224487226501527</v>
+        <v>-6.071088557472198</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.579952118883909</v>
+        <v>-4.223778818455803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.498263069531374</v>
+        <v>-8.3812110485867</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.563228374569411</v>
+        <v>-3.489151726740652</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2115477692934753</v>
+        <v>-0.2398227277156112</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.174909553190857</v>
+        <v>-0.1629564745159798</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3126188738992067</v>
+        <v>-0.306138601801397</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1521106533263411</v>
+        <v>-0.1470100481132793</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.430437726892071</v>
+        <v>6.32167296029573</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.909486334126317</v>
+        <v>9.360923211748421</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.338330713953383</v>
+        <v>3.787493501042041</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.611161910854165</v>
+        <v>6.382449115215914</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3732348709567819</v>
+        <v>0.3078868070721275</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4332444851488791</v>
+        <v>0.464786892799426</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1955330992038285</v>
+        <v>0.166735435867214</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3663166786095294</v>
+        <v>0.3592225505365492</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-11.21803183748776</v>
+        <v>-10.48284722615179</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-13.36614942389218</v>
+        <v>-14.11595560624476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.444622762237486</v>
+        <v>-8.815687517375512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.047344551758614</v>
+        <v>0.7828475253052232</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3961409308683679</v>
+        <v>-0.3790364886325991</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4855673633833943</v>
+        <v>-0.5155585084509211</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3409818436074279</v>
+        <v>-0.3164328100605757</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0393938125517764</v>
+        <v>0.03166022071519562</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.57077168369817</v>
+        <v>4.280651789645337</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.33769874149378</v>
+        <v>-0.108410777902161</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.815623424605739</v>
+        <v>6.098811027825128</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.69789060147075</v>
+        <v>10.83896762530886</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2167219318057479</v>
+        <v>0.2065362252809435</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01596892864281239</v>
+        <v>-0.001423635162657924</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2187284952041428</v>
+        <v>0.270244643243823</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5462370517697014</v>
+        <v>0.566679178507963</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.306784392897105</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.523056519126878</v>
+        <v>4.523056519126883</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2306577488400953</v>
@@ -1049,7 +1049,7 @@
         <v>0.08415693349600646</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2035667521046933</v>
+        <v>0.2035667521046936</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.97646948430166</v>
+        <v>-17.49477938755142</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.121000400021535</v>
+        <v>-7.5616018330859</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.556878938303495</v>
+        <v>-9.509815299332441</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.855713690894138</v>
+        <v>-2.408894364164726</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5676154706585491</v>
+        <v>-0.5720864520461038</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1999811555225126</v>
+        <v>-0.2477809195135076</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3044673886220043</v>
+        <v>-0.308857023932706</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.06734803111212458</v>
+        <v>-0.09494727384543447</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.08294782040189</v>
+        <v>6.023875667163474</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.21602973859527</v>
+        <v>20.49208557858336</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.38284324993007</v>
+        <v>14.67793644617232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.97923491820584</v>
+        <v>10.65414029337289</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2945231596974109</v>
+        <v>0.2410622012152571</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.936093843937602</v>
+        <v>0.8919087582507814</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6809808684919589</v>
+        <v>0.6881803045367565</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5702530741534531</v>
+        <v>0.5614194065183111</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-3.724880023428276</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.991963455423901</v>
+        <v>2.991963455423896</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1338204126455056</v>
@@ -1149,7 +1149,7 @@
         <v>-0.1502647228101151</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.147948784461525</v>
+        <v>0.1479487844615247</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.54290424669759</v>
+        <v>-6.51508826668451</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.138277625292681</v>
+        <v>-4.318830090820311</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.555147362666373</v>
+        <v>-6.983693277171898</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.008924993143968883</v>
+        <v>0.2055014757728174</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2511143404861491</v>
+        <v>-0.2484361715693981</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1655616156449638</v>
+        <v>-0.1740865282612894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2848204053617246</v>
+        <v>-0.2624703450849813</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0005768627855659529</v>
+        <v>0.009548177524931726</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1933778518385788</v>
+        <v>-0.0213151350979501</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.000764762724868</v>
+        <v>2.66799690279897</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-0.6201298003817114</v>
+        <v>-0.1736117944550656</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.94521837599038</v>
+        <v>5.494564204501118</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.004997342863817259</v>
+        <v>0.004506010130662294</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1429342933863088</v>
+        <v>0.1207673929234309</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.02607044466250623</v>
+        <v>-0.005456577875057904</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3164929563668198</v>
+        <v>0.2932732727243136</v>
       </c>
     </row>
     <row r="22">
